--- a/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
+++ b/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B4AAC7-5B3D-45DD-962B-22AB45B94D8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" fullCalcOnLoad="true" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Preliminary Calcs</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>Total Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
   </si>
   <si>
     <t>Potential (mV)</t>
@@ -67,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -75,21 +93,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3400,7 +3460,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3418,7 +3478,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
@@ -3739,28 +3799,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="true"/>
+    <col min="2" max="2" width="5.7109375" style="2" customWidth="true"/>
+    <col min="3" max="5" width="8.5546875" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+    <col min="7" max="1025" width="8.5546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3768,484 +3828,484 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2.0040080160320639</v>
       </c>
       <c r="B3" s="2">
-        <v>1.1846439016185628E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0011846439016185628</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4.0080160320641278</v>
       </c>
       <c r="B4" s="2">
-        <v>1.2679856061689921E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0012679856061689921</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6.0120240480961922</v>
       </c>
       <c r="B5" s="2">
-        <v>1.3646292524250683E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0013646292524250683</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>8.0160320641282556</v>
       </c>
       <c r="B6" s="2">
-        <v>1.4718740404921445E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0014718740404921445</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10.020040080160321</v>
       </c>
       <c r="B7" s="2">
-        <v>1.5917898361258397E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0015917898361258397</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>12.024048096192384</v>
       </c>
       <c r="B8" s="2">
-        <v>1.7221682530431583E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0017221682530431583</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>14.02805611222445</v>
       </c>
       <c r="B9" s="2">
-        <v>1.8624776340429052E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0018624776340429052</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>16.032064128256511</v>
       </c>
       <c r="B10" s="2">
-        <v>2.0216043162287109E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0020216043162287109</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>18.036072144288578</v>
       </c>
       <c r="B11" s="2">
-        <v>2.1897579583806774E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0021897579583806774</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20.040080160320642</v>
       </c>
       <c r="B12" s="2">
-        <v>2.3940026217160537E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0023940026217160537</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>22.044088176352705</v>
       </c>
       <c r="B13" s="2">
-        <v>2.5982475186442262E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0025982475186442262</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>24.048096192384769</v>
       </c>
       <c r="B14" s="2">
-        <v>2.8024924155723974E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0028024924155723974</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>26.052104208416832</v>
       </c>
       <c r="B15" s="2">
-        <v>3.0137390229349366E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0030137390229349366</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>28.056112224448899</v>
       </c>
       <c r="B16" s="2">
-        <v>3.2785888697218321E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0032785888697218321</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>30.060120240480959</v>
       </c>
       <c r="B17" s="2">
-        <v>3.5434384829159333E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0035434384829159333</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>32.064128256513023</v>
       </c>
       <c r="B18" s="2">
-        <v>3.8351977524898541E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0038351977524898541</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>34.06813627254509</v>
       </c>
       <c r="B19" s="2">
-        <v>4.161696241743092E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.004161696241743092</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>36.072144288577157</v>
       </c>
       <c r="B20" s="2">
-        <v>4.4881947309963295E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0044881947309963295</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>38.076152304609224</v>
       </c>
       <c r="B21" s="2">
-        <v>4.8655335240958318E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0048655335240958318</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>40.080160320641284</v>
       </c>
       <c r="B22" s="2">
-        <v>5.2591518662575875E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0052591518662575875</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42.084168336673351</v>
       </c>
       <c r="B23" s="2">
-        <v>5.6986950190825022E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0056986950190825022</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44.08817635270541</v>
       </c>
       <c r="B24" s="2">
-        <v>6.1632632016179745E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0061632632016179745</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>46.09218436873747</v>
       </c>
       <c r="B25" s="2">
-        <v>6.6686886327240215E-3</v>
+        <v>0.0066686886327240215</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>48.096192384769537</v>
       </c>
       <c r="B26" s="2">
-        <v>7.2093246737694955E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0072093246737694955</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>50.100200400801604</v>
       </c>
       <c r="B27" s="2">
-        <v>7.8125920821694606E-3</v>
+        <v>0.0078125920821694606</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>2.8069365912604428E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="0">
+        <v>0.028069365912604428</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>52.104208416833664</v>
       </c>
       <c r="B28" s="2">
-        <v>8.4357933653151137E-3</v>
+        <v>0.0084357933653151137</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>2.0870241726097762</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>54.108216432865731</v>
       </c>
       <c r="B29" s="2">
-        <v>9.1485167511786876E-3</v>
+        <v>0.0091485167511786876</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>2.1150935385223808</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>56.112224448897798</v>
       </c>
       <c r="B30" s="2">
-        <v>9.8793307310433877E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.0098793307310433877</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>58.116232464929865</v>
       </c>
       <c r="B31" s="2">
-        <v>1.0707620648292391E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.010707620648292391</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>60.120240480961918</v>
       </c>
       <c r="B32" s="2">
-        <v>1.1607789871646026E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.011607789871646026</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>62.124248496993985</v>
       </c>
       <c r="B33" s="2">
-        <v>1.2571817291712976E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.012571817291712976</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>64.128256513026045</v>
       </c>
       <c r="B34" s="2">
-        <v>1.36299685925574E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0136299685925574</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>66.132264529058119</v>
       </c>
       <c r="B35" s="2">
-        <v>1.4765410143007545E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.014765410143007545</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>68.136272545090179</v>
       </c>
       <c r="B36" s="2">
-        <v>1.5978141709470615E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.015978141709470615</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>70.140280561122239</v>
       </c>
       <c r="B37" s="2">
-        <v>1.7311813375973022E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.017311813375973022</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>72.144288577154313</v>
       </c>
       <c r="B38" s="2">
-        <v>1.8744748899111909E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.018744748899111909</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>74.148296593186373</v>
       </c>
       <c r="B39" s="2">
-        <v>2.0279988255520128E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.020279988255520128</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>76.152304609218447</v>
       </c>
       <c r="B40" s="2">
-        <v>2.1969793394793703E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.021969793394793703</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>78.156312625250493</v>
       </c>
       <c r="B41" s="2">
-        <v>2.3791790565444209E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.023791790565444209</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>80.160320641282567</v>
       </c>
       <c r="B42" s="2">
-        <v>2.5751497930065599E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.025751497930065599</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>82.164328657314627</v>
       </c>
       <c r="B43" s="2">
-        <v>2.7880987545805005E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.027880987545805005</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>84.168336673346701</v>
       </c>
       <c r="B44" s="2">
-        <v>3.0163345425569223E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.030163345425569223</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>86.172344689378761</v>
       </c>
       <c r="B45" s="2">
-        <v>3.2633864520757887E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.032633864520757887</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>88.176352705410821</v>
       </c>
       <c r="B46" s="2">
-        <v>3.5316172625778852E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.035316172625778852</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>90.180360721442895</v>
       </c>
       <c r="B47" s="2">
-        <v>3.8224631843237419E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.038224631843237419</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>92.184368737474941</v>
       </c>
       <c r="B48" s="2">
-        <v>4.1357047919214684E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.041357047919214684</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>94.188376753507015</v>
       </c>
       <c r="B49" s="2">
-        <v>4.4732404356170298E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.044732404356170298</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>96.192384769539075</v>
       </c>
       <c r="B50" s="2">
-        <v>4.8370461177412311E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.048370461177412311</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>98.196392785571149</v>
       </c>
       <c r="B51" s="2">
-        <v>5.2315689896030422E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.052315689896030422</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>100.20040080160321</v>
       </c>
       <c r="B52" s="2">
-        <v>5.6574225739185413E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.056574225739185413</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>102.20440881763527</v>
       </c>
       <c r="B53" s="2">
-        <v>6.116342446174429E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.06116342446174429</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>104.20841683366733</v>
       </c>
       <c r="B54" s="2">
-        <v>6.6104424912285686E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.066104424912285686</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>106.21242484969939</v>
       </c>
       <c r="B55" s="2">
-        <v>7.1431642828266653E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.071431642828266653</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>108.21643286573146</v>
       </c>
       <c r="B56" s="2">
-        <v>7.7191613938506723E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.077191613938506723</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>110.22044088176352</v>
       </c>
       <c r="B57" s="2">
-        <v>8.3384779412198198E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.083384779412198198</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>112.2244488977956</v>
       </c>
       <c r="B58" s="2">
-        <v>9.0041377865840128E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.090041377865840128</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>114.22845691382766</v>
       </c>
       <c r="B59" s="2">
-        <v>9.7193251092482058E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.097193251092482058</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>116.23246492985973</v>
       </c>
@@ -4253,7 +4313,7 @@
         <v>0.10492707661858204</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>118.23647294589178</v>
       </c>
@@ -4261,7 +4321,7 @@
         <v>0.11322564893323878</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>120.24048096192384</v>
       </c>
@@ -4269,7 +4329,7 @@
         <v>0.12212510157152441</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>122.24448897795591</v>
       </c>
@@ -4277,7 +4337,7 @@
         <v>0.13169929050177398</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>124.24849699398797</v>
       </c>
@@ -4285,7 +4345,7 @@
         <v>0.14195740105986862</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>126.25250501002003</v>
       </c>
@@ -4293,7 +4353,7 @@
         <v>0.15293571628026914</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>128.25651302605209</v>
       </c>
@@ -4301,7 +4361,7 @@
         <v>0.16472034944603745</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>130.26052104208415</v>
       </c>
@@ -4309,7 +4369,7 @@
         <v>0.17732260247736925</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>132.26452905811624</v>
       </c>
@@ -4317,7 +4377,7 @@
         <v>0.19078524831734617</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>134.2685370741483</v>
       </c>
@@ -4325,7 +4385,7 @@
         <v>0.20517750565013884</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>136.27254509018036</v>
       </c>
@@ -4333,7 +4393,7 @@
         <v>0.22050407599793026</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>138.27655310621242</v>
       </c>
@@ -4341,7 +4401,7 @@
         <v>0.23685262907257476</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>140.28056112224448</v>
       </c>
@@ -4349,7 +4409,7 @@
         <v>0.25424531624522012</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>142.28456913827657</v>
       </c>
@@ -4357,7 +4417,7 @@
         <v>0.27270914341247754</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>144.28857715430863</v>
       </c>
@@ -4365,7 +4425,7 @@
         <v>0.29233201551414589</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>146.29258517034069</v>
       </c>
@@ -4373,7 +4433,7 @@
         <v>0.31313164822779049</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>148.29659318637275</v>
       </c>
@@ -4381,7 +4441,7 @@
         <v>0.33513612337843596</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>150.30060120240483</v>
       </c>
@@ -4389,7 +4449,7 @@
         <v>0.35837386243503072</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>152.30460921843689</v>
       </c>
@@ -4397,7 +4457,7 @@
         <v>0.38287267508699335</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>154.30861723446893</v>
       </c>
@@ -4405,7 +4465,7 @@
         <v>0.40864961360835167</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>156.31262525050099</v>
       </c>
@@ -4413,7 +4473,7 @@
         <v>0.43571149447045354</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>158.31663326653305</v>
       </c>
@@ -4421,7 +4481,7 @@
         <v>0.46407678832277766</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>160.32064128256513</v>
       </c>
@@ -4429,7 +4489,7 @@
         <v>0.49374049114047136</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>162.32464929859719</v>
       </c>
@@ -4437,7 +4497,7 @@
         <v>0.52465413008266493</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>164.32865731462925</v>
       </c>
@@ -4445,7 +4505,7 @@
         <v>0.55683400432021524</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>166.33266533066131</v>
       </c>
@@ -4453,7 +4513,7 @@
         <v>0.590262742257744</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>168.3366733466934</v>
       </c>
@@ -4461,7 +4521,7 @@
         <v>0.62491746231302647</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>170.34068136272546</v>
       </c>
@@ -4469,7 +4529,7 @@
         <v>0.66072971525655855</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>172.34468937875752</v>
       </c>
@@ -4477,7 +4537,7 @@
         <v>0.69754127770949215</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>174.34869739478958</v>
       </c>
@@ -4485,7 +4545,7 @@
         <v>0.7353543935642155</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>176.35270541082164</v>
       </c>
@@ -4493,7 +4553,7 @@
         <v>0.77409244415040757</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>178.35671342685373</v>
       </c>
@@ -4501,7 +4561,7 @@
         <v>0.81366984106801699</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>180.36072144288579</v>
       </c>
@@ -4509,7 +4569,7 @@
         <v>0.8539400447826111</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>182.36472945891782</v>
       </c>
@@ -4517,7 +4577,7 @@
         <v>0.89478260200153537</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>184.36873747494988</v>
       </c>
@@ -4525,7 +4585,7 @@
         <v>0.93609840257221189</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>186.37274549098197</v>
       </c>
@@ -4533,7 +4593,7 @@
         <v>0.97775472467480529</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>188.37675350701403</v>
       </c>
@@ -4541,7 +4601,7 @@
         <v>1.0196049535580027</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>190.38076152304609</v>
       </c>
@@ -4549,7 +4609,7 @@
         <v>1.0614627858866745</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>192.38476953907815</v>
       </c>
@@ -4557,7 +4617,7 @@
         <v>1.1033141462933707</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>194.38877755511021</v>
       </c>
@@ -4565,7 +4625,7 @@
         <v>1.1449519559333752</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>196.3927855711423</v>
       </c>
@@ -4573,7 +4633,7 @@
         <v>1.1862183592196964</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>198.39679358717436</v>
       </c>
@@ -4581,7 +4641,7 @@
         <v>1.2269520749270038</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>200.40080160320642</v>
       </c>
@@ -4589,7 +4649,7 @@
         <v>1.2670262511888051</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>202.40480961923848</v>
       </c>
@@ -4597,7 +4657,7 @@
         <v>1.3065291293185239</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>204.40881763527054</v>
       </c>
@@ -4605,7 +4665,7 @@
         <v>1.3451848222098142</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>206.41282565130263</v>
       </c>
@@ -4613,7 +4673,7 @@
         <v>1.3828809424124329</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>208.41683366733466</v>
       </c>
@@ -4621,7 +4681,7 @@
         <v>1.4194939736482015</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>210.42084168336672</v>
       </c>
@@ -4629,7 +4689,7 @@
         <v>1.454928950635096</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>212.42484969939878</v>
       </c>
@@ -4637,7 +4697,7 @@
         <v>1.4893392789005691</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>214.42885771543087</v>
       </c>
@@ -4645,7 +4705,7 @@
         <v>1.5225230087136992</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>216.43286573146293</v>
       </c>
@@ -4653,7 +4713,7 @@
         <v>1.5544231830265085</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>218.43687374749499</v>
       </c>
@@ -4661,7 +4721,7 @@
         <v>1.5849896133758459</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>220.44088176352705</v>
       </c>
@@ -4669,7 +4729,7 @@
         <v>1.6142036483114086</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>222.44488977955911</v>
       </c>
@@ -4677,7 +4737,7 @@
         <v>1.6422488623372977</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>224.44889779559119</v>
       </c>
@@ -4685,7 +4745,7 @@
         <v>1.6689349444835972</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>226.45290581162325</v>
       </c>
@@ -4693,7 +4753,7 @@
         <v>1.6942444898095566</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>228.45691382765531</v>
       </c>
@@ -4701,7 +4761,7 @@
         <v>1.7181322385432001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>230.46092184368737</v>
       </c>
@@ -4709,7 +4769,7 @@
         <v>1.7405631821907543</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>232.46492985971946</v>
       </c>
@@ -4717,7 +4777,7 @@
         <v>1.7620366228401978</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>234.46893787575152</v>
       </c>
@@ -4725,7 +4785,7 @@
         <v>1.7822736352188955</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>236.47294589178355</v>
       </c>
@@ -4733,7 +4793,7 @@
         <v>1.8012827506613018</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>238.47695390781561</v>
       </c>
@@ -4741,7 +4801,7 @@
         <v>1.8190760409510658</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>240.48096192384767</v>
       </c>
@@ -4749,7 +4809,7 @@
         <v>1.8356653888368675</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>242.48496993987976</v>
       </c>
@@ -4757,7 +4817,7 @@
         <v>1.8513073291963664</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>244.48897795591182</v>
       </c>
@@ -4765,7 +4825,7 @@
         <v>1.8659498648282009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>246.49298597194388</v>
       </c>
@@ -4773,7 +4833,7 @@
         <v>1.879601736716358</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>248.49699398797594</v>
       </c>
@@ -4781,7 +4841,7 @@
         <v>1.8923002344758502</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>250.501002004008</v>
       </c>
@@ -4789,7 +4849,7 @@
         <v>1.904082617909411</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>252.50501002004006</v>
       </c>
@@ -4797,7 +4857,7 @@
         <v>1.9150561302283555</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>254.50901803607212</v>
       </c>
@@ -4805,7 +4865,7 @@
         <v>1.9252590281218682</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>256.51302605210418</v>
       </c>
@@ -4813,7 +4873,7 @@
         <v>1.9347182044568461</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>258.51703406813624</v>
       </c>
@@ -4821,7 +4881,7 @@
         <v>1.9434797024171022</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>260.5210420841683</v>
       </c>
@@ -4829,7 +4889,7 @@
         <v>1.951587813036092</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>262.52505010020036</v>
       </c>
@@ -4837,7 +4897,7 @@
         <v>1.9590687265627857</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>264.52905811623248</v>
       </c>
@@ -4845,7 +4905,7 @@
         <v>1.9659629763985431</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>266.53306613226454</v>
       </c>
@@ -4853,7 +4913,7 @@
         <v>1.9723216354180364</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>268.5370741482966</v>
       </c>
@@ -4861,7 +4921,7 @@
         <v>1.9781873254882072</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>270.54108216432866</v>
       </c>
@@ -4869,7 +4929,7 @@
         <v>1.9835973890160403</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>272.54509018036072</v>
       </c>
@@ -4877,7 +4937,7 @@
         <v>1.9885613391703052</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>274.54909819639278</v>
       </c>
@@ -4885,7 +4945,7 @@
         <v>1.9930871567364365</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>276.55310621242484</v>
       </c>
@@ -4893,7 +4953,7 @@
         <v>1.9972386007072078</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>278.5571142284569</v>
       </c>
@@ -4901,7 +4961,7 @@
         <v>2.0010505468372868</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>280.56112224448896</v>
       </c>
@@ -4909,7 +4969,7 @@
         <v>2.0045575688020594</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>282.56513026052107</v>
       </c>
@@ -4917,7 +4977,7 @@
         <v>2.0077645657359127</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>284.56913827655313</v>
       </c>
@@ -4925,7 +4985,7 @@
         <v>2.0106569198981266</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>286.57314629258519</v>
       </c>
@@ -4933,7 +4993,7 @@
         <v>2.013293312448599</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>288.57715430861725</v>
       </c>
@@ -4941,7 +5001,7 @@
         <v>2.0156915327853211</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>290.58116232464931</v>
       </c>
@@ -4949,7 +5009,7 @@
         <v>2.0178616631894077</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>292.58517034068137</v>
       </c>
@@ -4957,7 +5017,7 @@
         <v>2.0198209359108352</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>294.58917835671343</v>
       </c>
@@ -4965,7 +5025,7 @@
         <v>2.02158955909879</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>296.59318637274549</v>
       </c>
@@ -4973,7 +5033,7 @@
         <v>2.0231870266559882</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>298.59719438877755</v>
       </c>
@@ -4981,7 +5041,7 @@
         <v>2.0246208159315935</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>300.60120240480967</v>
       </c>
@@ -4989,7 +5049,7 @@
         <v>2.0259023003105967</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>302.60521042084173</v>
       </c>
@@ -4997,7 +5057,7 @@
         <v>2.0270413525304272</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>304.60921843687379</v>
       </c>
@@ -5005,7 +5065,7 @@
         <v>2.0280464955417461</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>306.61322645290579</v>
       </c>
@@ -5013,7 +5073,7 @@
         <v>2.0289320182486672</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>308.61723446893785</v>
       </c>
@@ -5021,7 +5081,7 @@
         <v>2.0297201832344074</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>310.62124248496991</v>
       </c>
@@ -5029,7 +5089,7 @@
         <v>2.0304081129058256</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>312.62525050100197</v>
       </c>
@@ -5037,7 +5097,7 @@
         <v>2.0310025742746451</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>314.62925851703403</v>
       </c>
@@ -5045,7 +5105,7 @@
         <v>2.0315094895897965</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>316.63326653306609</v>
       </c>
@@ -5053,7 +5113,7 @@
         <v>2.0319335872658324</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>318.63727454909821</v>
       </c>
@@ -5061,7 +5121,7 @@
         <v>2.0322840979592867</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>320.64128256513027</v>
       </c>
@@ -5069,7 +5129,7 @@
         <v>2.0325780988364186</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>322.64529058116233</v>
       </c>
@@ -5077,7 +5137,7 @@
         <v>2.0328110907886776</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>324.64929859719439</v>
       </c>
@@ -5085,7 +5145,7 @@
         <v>2.0329869813526864</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>326.65330661322645</v>
       </c>
@@ -5093,7 +5153,7 @@
         <v>2.0331088786776759</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>328.65731462925851</v>
       </c>
@@ -5101,7 +5161,7 @@
         <v>2.0331792795932304</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>330.66132264529057</v>
       </c>
@@ -5109,7 +5169,7 @@
         <v>2.0332044538504128</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>332.66533066132263</v>
       </c>
@@ -5117,7 +5177,7 @@
         <v>2.0331988424021716</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>334.66933867735469</v>
       </c>
@@ -5125,7 +5185,7 @@
         <v>2.0331569427056051</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>336.6733466933868</v>
       </c>
@@ -5133,7 +5193,7 @@
         <v>2.0330812267774525</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>338.67735470941886</v>
       </c>
@@ -5141,7 +5201,7 @@
         <v>2.0329736266828822</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>340.68136272545092</v>
       </c>
@@ -5149,7 +5209,7 @@
         <v>2.0328357268754345</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>342.68537074148298</v>
       </c>
@@ -5157,7 +5217,7 @@
         <v>2.0326710673152215</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>344.68937875751504</v>
       </c>
@@ -5165,7 +5225,7 @@
         <v>2.0324885988501937</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>346.6933867735471</v>
       </c>
@@ -5173,7 +5233,7 @@
         <v>2.0322849736931996</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>348.69739478957916</v>
       </c>
@@ -5181,7 +5241,7 @@
         <v>2.0320615329981102</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>350.70140280561122</v>
       </c>
@@ -5189,7 +5249,7 @@
         <v>2.0318195321382282</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>352.70541082164328</v>
       </c>
@@ -5197,7 +5257,7 @@
         <v>2.0315597476385086</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>354.70941883767534</v>
       </c>
@@ -5205,7 +5265,7 @@
         <v>2.0312870148255504</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>356.71342685370746</v>
       </c>
@@ -5213,7 +5273,7 @@
         <v>2.0310132464067667</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>358.71743486973952</v>
       </c>
@@ -5221,7 +5281,7 @@
         <v>2.0307284184070808</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>360.72144288577158</v>
       </c>
@@ -5229,7 +5289,7 @@
         <v>2.0304330356123108</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>362.72545090180358</v>
       </c>
@@ -5237,7 +5297,7 @@
         <v>2.0301272390728125</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>364.72945891783564</v>
       </c>
@@ -5245,7 +5305,7 @@
         <v>2.0298110086818117</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>366.7334669338677</v>
       </c>
@@ -5253,7 +5313,7 @@
         <v>2.0294840099663625</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>368.73747494989976</v>
       </c>
@@ -5261,7 +5321,7 @@
         <v>2.0291456273344002</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>370.74148296593182</v>
       </c>
@@ -5269,7 +5329,7 @@
         <v>2.0287950574828866</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>372.74549098196394</v>
       </c>
@@ -5277,7 +5337,7 @@
         <v>2.0284311974457263</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>374.749498997996</v>
       </c>
@@ -5285,7 +5345,7 @@
         <v>2.0280527218502509</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>376.75350701402806</v>
       </c>
@@ -5293,7 +5353,7 @@
         <v>2.0276579690229348</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>378.75751503006012</v>
       </c>
@@ -5301,7 +5361,7 @@
         <v>2.0272790385787172</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>380.76152304609218</v>
       </c>
@@ -5309,7 +5369,7 @@
         <v>2.0269163960319942</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>382.76553106212424</v>
       </c>
@@ -5317,7 +5377,7 @@
         <v>2.0265510868921219</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>384.7695390781563</v>
       </c>
@@ -5325,7 +5385,7 @@
         <v>2.0261829736924777</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>386.77354709418836</v>
       </c>
@@ -5333,7 +5393,7 @@
         <v>2.0258118671696312</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>388.77755511022042</v>
       </c>
@@ -5341,7 +5401,7 @@
         <v>2.0254374161287929</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>390.78156312625248</v>
       </c>
@@ -5349,7 +5409,7 @@
         <v>2.0250591043877129</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>392.7855711422846</v>
       </c>
@@ -5357,7 +5417,7 @@
         <v>2.024676416719501</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>394.78957915831666</v>
       </c>
@@ -5365,7 +5425,7 @@
         <v>2.024288529007864</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>396.79358717434872</v>
       </c>
@@ -5373,7 +5433,7 @@
         <v>2.0238946242809357</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>398.79759519038078</v>
       </c>
@@ -5381,7 +5441,7 @@
         <v>2.0234937434207296</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>400.80160320641284</v>
       </c>
@@ -5389,7 +5449,7 @@
         <v>2.0230847437753545</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>402.8056112224449</v>
       </c>
@@ -5397,7 +5457,7 @@
         <v>2.0226990776251812</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>404.80961923847696</v>
       </c>
@@ -5405,7 +5465,7 @@
         <v>2.0223147338032152</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>406.81362725450902</v>
       </c>
@@ -5413,7 +5473,7 @@
         <v>2.0219301792918976</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>408.81763527054107</v>
       </c>
@@ -5421,7 +5481,7 @@
         <v>2.0215453868824569</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>410.82164328657319</v>
       </c>
@@ -5429,7 +5489,7 @@
         <v>2.0211600878078495</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>412.82565130260525</v>
       </c>
@@ -5437,7 +5497,7 @@
         <v>2.020774131954763</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>414.82965931863731</v>
       </c>
@@ -5445,7 +5505,7 @@
         <v>2.0203871627637002</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>416.83366733466931</v>
       </c>
@@ -5453,7 +5513,7 @@
         <v>2.0199988248945098</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>418.83767535070137</v>
       </c>
@@ -5461,7 +5521,7 @@
         <v>2.0196088233291873</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>420.84168336673343</v>
       </c>
@@ -5469,7 +5529,7 @@
         <v>2.0192166833787155</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>422.84569138276549</v>
       </c>
@@ -5477,7 +5537,7 @@
         <v>2.0188218435052061</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>424.84969939879755</v>
       </c>
@@ -5485,7 +5545,7 @@
         <v>2.0184282873513095</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>426.85370741482961</v>
       </c>
@@ -5493,7 +5553,7 @@
         <v>2.0180443938684212</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>428.85771543086173</v>
       </c>
@@ -5501,7 +5561,7 @@
         <v>2.0176613208109635</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>430.86172344689379</v>
       </c>
@@ -5509,7 +5569,7 @@
         <v>2.0172790779308074</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>432.86573146292585</v>
       </c>
@@ -5517,7 +5577,7 @@
         <v>2.0168976155797886</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>434.86973947895791</v>
       </c>
@@ -5525,7 +5585,7 @@
         <v>2.016516849534959</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>436.87374749498997</v>
       </c>
@@ -5533,7 +5593,7 @@
         <v>2.0161367643900014</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>438.87775551102203</v>
       </c>
@@ -5541,7 +5601,7 @@
         <v>2.0157572228558824</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>440.88176352705409</v>
       </c>
@@ -5549,7 +5609,7 @@
         <v>2.0153781482865356</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>442.88577154308615</v>
       </c>
@@ -5557,7 +5617,7 @@
         <v>2.0149994349792815</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>444.88977955911821</v>
       </c>
@@ -5565,7 +5625,7 @@
         <v>2.0146209173233154</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>446.89378757515033</v>
       </c>
@@ -5573,7 +5633,7 @@
         <v>2.0142424259859464</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>448.89779559118239</v>
       </c>
@@ -5581,7 +5641,7 @@
         <v>2.0138667602867981</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>450.90180360721445</v>
       </c>
@@ -5589,7 +5649,7 @@
         <v>2.0134935477501101</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>452.90581162324651</v>
       </c>
@@ -5597,7 +5657,7 @@
         <v>2.0131214000474045</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>454.90981963927857</v>
       </c>
@@ -5605,7 +5665,7 @@
         <v>2.0127502750880075</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>456.91382765531063</v>
       </c>
@@ -5613,7 +5673,7 @@
         <v>2.0123802168136913</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>458.91783567134269</v>
       </c>
@@ -5621,7 +5681,7 @@
         <v>2.0120111137346735</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>460.92184368737475</v>
       </c>
@@ -5629,7 +5689,7 @@
         <v>2.0116429304641055</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>462.92585170340681</v>
       </c>
@@ -5637,7 +5697,7 @@
         <v>2.0112756252281629</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>464.92985971943892</v>
       </c>
@@ -5645,7 +5705,7 @@
         <v>2.0109091866457693</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>466.93386773547098</v>
       </c>
@@ -5653,7 +5713,7 @@
         <v>2.0105434244294607</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>468.93787575150304</v>
       </c>
@@ -5661,7 +5721,7 @@
         <v>2.0101784154419011</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>470.9418837675351</v>
       </c>
@@ -5669,7 +5729,7 @@
         <v>2.0098139673948388</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>472.94589178356711</v>
       </c>
@@ -5677,7 +5737,7 @@
         <v>2.0094521052928007</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>474.94989979959917</v>
       </c>
@@ -5685,7 +5745,7 @@
         <v>2.0090912943305121</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>476.95390781563123</v>
       </c>
@@ -5693,7 +5753,7 @@
         <v>2.0087314651970112</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>478.95791583166329</v>
       </c>
@@ -5701,7 +5761,7 @@
         <v>2.008372698481049</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>480.96192384769535</v>
       </c>
@@ -5709,7 +5769,7 @@
         <v>2.0080149232594748</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>482.96593186372746</v>
       </c>
@@ -5717,7 +5777,7 @@
         <v>2.007658070137984</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>484.96993987975952</v>
       </c>
@@ -5725,7 +5785,7 @@
         <v>2.00730219154691</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>486.97394789579158</v>
       </c>
@@ -5733,7 +5793,7 @@
         <v>2.0069471895437729</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>488.97795591182364</v>
       </c>
@@ -5741,7 +5801,7 @@
         <v>2.0065930263188405</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>490.9819639278557</v>
       </c>
@@ -5749,7 +5809,7 @@
         <v>2.0062396942952163</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>492.98597194388776</v>
       </c>
@@ -5757,7 +5817,7 @@
         <v>2.0058871764294621</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>494.98997995991982</v>
       </c>
@@ -5765,7 +5825,7 @@
         <v>2.0055357040200659</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>496.99398797595188</v>
       </c>
@@ -5773,7 +5833,7 @@
         <v>2.0051857194784373</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>498.99799599198394</v>
       </c>
@@ -5781,7 +5841,7 @@
         <v>2.0048366162122044</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>498.99799599198406</v>
       </c>
@@ -5789,7 +5849,7 @@
         <v>2.0044882960467629</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>496.99398797595194</v>
       </c>
@@ -5797,7 +5857,7 @@
         <v>2.0041408104267404</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>494.98997995991988</v>
       </c>
@@ -5805,7 +5865,7 @@
         <v>2.0037940433155144</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>492.98597194388788</v>
       </c>
@@ -5813,7 +5873,7 @@
         <v>2.0034479825635128</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>490.98196392785576</v>
       </c>
@@ -5821,7 +5881,7 @@
         <v>2.0031026200950697</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>488.9779559118237</v>
       </c>
@@ -5829,7 +5889,7 @@
         <v>2.0027578298271265</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>486.97394789579158</v>
       </c>
@@ -5837,7 +5897,7 @@
         <v>2.0024136054972352</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>484.96993987975952</v>
       </c>
@@ -5845,7 +5905,7 @@
         <v>2.0020699709638983</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>482.96593186372752</v>
       </c>
@@ -5853,7 +5913,7 @@
         <v>2.0017267709074389</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>480.9619238476954</v>
       </c>
@@ -5861,7 +5921,7 @@
         <v>2.001383951189847</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>478.95791583166334</v>
       </c>
@@ -5869,7 +5929,7 @@
         <v>2.0010415937569057</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>476.95390781563134</v>
       </c>
@@ -5877,7 +5937,7 @@
         <v>2.0006994927415898</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>474.94989979959928</v>
       </c>
@@ -5885,7 +5945,7 @@
         <v>2.0003576443617148</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>472.94589178356716</v>
       </c>
@@ -5893,7 +5953,7 @@
         <v>2.0000160448350921</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>470.94188376753505</v>
       </c>
@@ -5901,7 +5961,7 @@
         <v>1.9996745707800117</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>468.93787575150299</v>
       </c>
@@ -5909,7 +5969,7 @@
         <v>1.9993338762116015</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>466.93386773547098</v>
       </c>
@@ -5917,7 +5977,7 @@
         <v>1.9989960182285216</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>464.92985971943892</v>
       </c>
@@ -5925,7 +5985,7 @@
         <v>1.9986587673211227</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>462.92585170340681</v>
       </c>
@@ -5933,7 +5993,7 @@
         <v>1.9983221368436359</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>460.9218436873748</v>
       </c>
@@ -5941,7 +6001,7 @@
         <v>1.9979860000214926</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>458.91783567134274</v>
       </c>
@@ -5949,7 +6009,7 @@
         <v>1.9976504692791954</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>456.91382765531063</v>
       </c>
@@ -5957,7 +6017,7 @@
         <v>1.9973154776419437</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>454.90981963927857</v>
       </c>
@@ -5965,7 +6025,7 @@
         <v>1.9969809581349813</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>452.90581162324645</v>
       </c>
@@ -5973,7 +6033,7 @@
         <v>1.9966470613633629</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>450.90180360721445</v>
       </c>
@@ -5981,7 +6041,7 @@
         <v>1.9963135286049258</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>448.89779559118239</v>
       </c>
@@ -5989,7 +6049,7 @@
         <v>1.9959806478068023</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>446.89378757515027</v>
       </c>
@@ -5997,7 +6057,7 @@
         <v>1.9956481751610891</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>444.88977955911827</v>
       </c>
@@ -6005,7 +6065,7 @@
         <v>1.995316046259036</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>442.88577154308621</v>
       </c>
@@ -6013,7 +6073,7 @@
         <v>1.9949844358909854</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>440.88176352705409</v>
       </c>
@@ -6021,7 +6081,7 @@
         <v>1.9946532788861584</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>438.87775551102203</v>
       </c>
@@ -6029,7 +6089,7 @@
         <v>1.9943224428029578</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>436.87374749498991</v>
       </c>
@@ -6037,7 +6097,7 @@
         <v>1.9939920476778836</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>434.86973947895791</v>
       </c>
@@ -6045,7 +6105,7 @@
         <v>1.9936619687978612</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>432.86573146292585</v>
       </c>
@@ -6053,7 +6113,7 @@
         <v>1.9933317824510952</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>430.86172344689373</v>
       </c>
@@ -6061,7 +6121,7 @@
         <v>1.9929990915338449</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>428.85771543086173</v>
       </c>
@@ -6069,7 +6129,7 @@
         <v>1.9926661035235433</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>426.85370741482967</v>
       </c>
@@ -6077,7 +6137,7 @@
         <v>1.9923327511400759</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>424.84969939879761</v>
       </c>
@@ -6085,7 +6145,7 @@
         <v>1.9919988462240474</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>422.84569138276549</v>
       </c>
@@ -6093,7 +6153,7 @@
         <v>1.9916643266984293</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>420.84168336673338</v>
       </c>
@@ -6101,7 +6161,7 @@
         <v>1.9913291870573375</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>418.83767535070137</v>
       </c>
@@ -6109,7 +6169,7 @@
         <v>1.9909933021953776</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>416.83366733466931</v>
       </c>
@@ -6117,7 +6177,7 @@
         <v>1.9906566068068532</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>414.82965931863725</v>
       </c>
@@ -6125,7 +6185,7 @@
         <v>1.9903189159867567</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>412.82565130260525</v>
       </c>
@@ -6133,7 +6193,7 @@
         <v>1.989980270361472</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>410.82164328657313</v>
       </c>
@@ -6141,7 +6201,7 @@
         <v>1.9896404834751884</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>408.81763527054102</v>
       </c>
@@ -6149,7 +6209,7 @@
         <v>1.9892994949989737</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>406.81362725450896</v>
       </c>
@@ -6157,7 +6217,7 @@
         <v>1.9889571786113647</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>404.8096192384769</v>
       </c>
@@ -6165,7 +6225,7 @@
         <v>1.9886134677908252</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>402.8056112224449</v>
       </c>
@@ -6173,7 +6233,7 @@
         <v>1.9882681764162509</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400.80160320641278</v>
       </c>
@@ -6181,7 +6241,7 @@
         <v>1.9879212977655754</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>398.79759519038066</v>
       </c>
@@ -6189,7 +6249,7 @@
         <v>1.9875726672385139</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>396.79358717434866</v>
       </c>
@@ -6197,7 +6257,7 @@
         <v>1.9872219886542308</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>394.7895791583166</v>
       </c>
@@ -6205,7 +6265,7 @@
         <v>1.9868634555941131</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>392.78557114228454</v>
       </c>
@@ -6213,7 +6273,7 @@
         <v>1.9865016619566842</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>390.78156312625242</v>
       </c>
@@ -6221,7 +6281,7 @@
         <v>1.9861363578599296</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>388.77755511022053</v>
       </c>
@@ -6229,7 +6289,7 @@
         <v>1.9857672257944401</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>386.77354709418842</v>
       </c>
@@ -6237,7 +6297,7 @@
         <v>1.9853941342918404</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>384.76953907815636</v>
       </c>
@@ -6245,7 +6305,7 @@
         <v>1.9850167753675585</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>382.76553106212424</v>
       </c>
@@ -6253,7 +6313,7 @@
         <v>1.9846348980724446</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>380.76152304609224</v>
       </c>
@@ -6261,7 +6321,7 @@
         <v>1.9842482514580326</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>378.75751503006018</v>
       </c>
@@ -6269,7 +6329,7 @@
         <v>1.9838566088667702</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>376.75350701402806</v>
       </c>
@@ -6277,7 +6337,7 @@
         <v>1.9834595624645708</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>374.74949899799606</v>
       </c>
@@ -6285,7 +6345,7 @@
         <v>1.9830568747726505</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>372.745490981964</v>
       </c>
@@ -6293,7 +6353,7 @@
         <v>1.9826482842197739</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>370.74148296593194</v>
       </c>
@@ -6301,7 +6361,7 @@
         <v>1.9822335280567052</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>368.73747494989982</v>
       </c>
@@ -6309,7 +6369,7 @@
         <v>1.9818122232526236</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>366.7334669338677</v>
       </c>
@@ -6317,7 +6377,7 @@
         <v>1.9813841089046809</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>364.7294589178357</v>
       </c>
@@ -6325,7 +6385,7 @@
         <v>1.9809488632118832</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>362.72545090180364</v>
       </c>
@@ -6333,7 +6393,7 @@
         <v>1.9805061367536276</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>360.72144288577158</v>
       </c>
@@ -6341,7 +6401,7 @@
         <v>1.980055542772331</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>358.71743486973958</v>
       </c>
@@ -6349,7 +6409,7 @@
         <v>1.9795650289517182</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>356.71342685370746</v>
       </c>
@@ -6357,7 +6417,7 @@
         <v>1.9790563866033684</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>354.70941883767534</v>
       </c>
@@ -6365,7 +6425,7 @@
         <v>1.9785312366591652</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>352.70541082164328</v>
       </c>
@@ -6373,7 +6433,7 @@
         <v>1.9779885225350988</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>350.70140280561122</v>
       </c>
@@ -6381,7 +6441,7 @@
         <v>1.9774272147562419</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>348.69739478957922</v>
       </c>
@@ -6389,7 +6449,7 @@
         <v>1.9768464294234267</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>346.6933867735471</v>
       </c>
@@ -6397,7 +6457,7 @@
         <v>1.9762449052897684</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>344.68937875751499</v>
       </c>
@@ -6405,7 +6465,7 @@
         <v>1.9756214094360711</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>342.68537074148298</v>
       </c>
@@ -6413,7 +6473,7 @@
         <v>1.9749749769488973</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>340.68136272545092</v>
       </c>
@@ -6421,7 +6481,7 @@
         <v>1.9743042882771484</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>338.67735470941886</v>
       </c>
@@ -6429,7 +6489,7 @@
         <v>1.9736081318945307</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>336.67334669338675</v>
       </c>
@@ -6437,7 +6497,7 @@
         <v>1.9728852164453254</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>334.66933867735463</v>
       </c>
@@ -6445,7 +6505,7 @@
         <v>1.9721341820873273</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>332.66533066132263</v>
       </c>
@@ -6453,7 +6513,7 @@
         <v>1.9713537203532323</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>330.66132264529057</v>
       </c>
@@ -6461,7 +6521,7 @@
         <v>1.9705424565914167</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>328.65731462925851</v>
       </c>
@@ -6469,7 +6529,7 @@
         <v>1.9696990023774061</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>326.6533066132265</v>
       </c>
@@ -6477,7 +6537,7 @@
         <v>1.9688219118137729</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>324.64929859719439</v>
       </c>
@@ -6485,7 +6545,7 @@
         <v>1.9679096097624029</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>322.64529058116233</v>
       </c>
@@ -6493,7 +6553,7 @@
         <v>1.9668523367138941</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>320.64128256513021</v>
       </c>
@@ -6501,7 +6561,7 @@
         <v>1.9657051545979529</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>318.63727454909815</v>
       </c>
@@ -6509,7 +6569,7 @@
         <v>1.9644885372865195</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>316.63326653306615</v>
       </c>
@@ -6517,7 +6577,7 @@
         <v>1.9631982845238243</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>314.62925851703403</v>
       </c>
@@ -6525,7 +6585,7 @@
         <v>1.9618302997838981</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>312.62525050100197</v>
       </c>
@@ -6533,7 +6593,7 @@
         <v>1.9603799903367527</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>310.62124248496997</v>
       </c>
@@ -6541,7 +6601,7 @@
         <v>1.9588429292229863</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>308.61723446893791</v>
       </c>
@@ -6549,7 +6609,7 @@
         <v>1.9572144926666672</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>306.61322645290579</v>
       </c>
@@ -6557,7 +6617,7 @@
         <v>1.9554898551954365</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>304.60921843687368</v>
       </c>
@@ -6565,7 +6625,7 @@
         <v>1.9536641664228023</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>302.60521042084162</v>
       </c>
@@ -6573,7 +6633,7 @@
         <v>1.9517322484724748</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>300.60120240480961</v>
       </c>
@@ -6581,7 +6641,7 @@
         <v>1.9496889796727805</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>298.59719438877755</v>
       </c>
@@ -6589,7 +6649,7 @@
         <v>1.9475291456120563</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>296.59318637274544</v>
       </c>
@@ -6597,7 +6657,7 @@
         <v>1.9452471408224012</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>294.58917835671343</v>
       </c>
@@ -6605,7 +6665,7 @@
         <v>1.942837369752658</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>292.58517034068132</v>
       </c>
@@ -6613,7 +6673,7 @@
         <v>1.9402941330452221</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>290.58116232464926</v>
       </c>
@@ -6621,7 +6681,7 @@
         <v>1.9376116249336701</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>288.5771543086172</v>
       </c>
@@ -6629,7 +6689,7 @@
         <v>1.9347837739762743</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>286.57314629258508</v>
       </c>
@@ -6637,7 +6697,7 @@
         <v>1.9313096008741886</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>284.56913827655308</v>
       </c>
@@ -6645,7 +6705,7 @@
         <v>1.9273625186259422</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>282.56513026052096</v>
       </c>
@@ -6653,7 +6713,7 @@
         <v>1.9231333443897376</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>280.5611222444889</v>
       </c>
@@ -6661,7 +6721,7 @@
         <v>1.9186076965579704</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>278.5571142284569</v>
       </c>
@@ -6669,7 +6729,7 @@
         <v>1.9137708183000117</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>276.55310621242489</v>
       </c>
@@ -6677,7 +6737,7 @@
         <v>1.9086074334062511</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>274.54909819639283</v>
       </c>
@@ -6685,7 +6745,7 @@
         <v>1.9031023476289501</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>272.54509018036083</v>
       </c>
@@ -6693,7 +6753,7 @@
         <v>1.8972398571814877</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>270.54108216432871</v>
       </c>
@@ -6701,7 +6761,7 @@
         <v>1.8910037455556574</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>268.53707414829665</v>
       </c>
@@ -6709,7 +6769,7 @@
         <v>1.8843777234644969</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>266.53306613226454</v>
       </c>
@@ -6717,7 +6777,7 @@
         <v>1.8773450371509706</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>264.52905811623248</v>
       </c>
@@ -6725,7 +6785,7 @@
         <v>1.8698885569196395</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>262.52505010020047</v>
       </c>
@@ -6733,7 +6793,7 @@
         <v>1.8619908403235099</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>260.52104208416836</v>
       </c>
@@ -6741,7 +6801,7 @@
         <v>1.853633937201649</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>258.5170340681363</v>
       </c>
@@ -6749,7 +6809,7 @@
         <v>1.8447999796907861</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>256.51302605210429</v>
       </c>
@@ -6757,7 +6817,7 @@
         <v>1.8354708794160515</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>254.50901803607221</v>
       </c>
@@ -6765,7 +6825,7 @@
         <v>1.825627652845786</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>252.50501002004012</v>
       </c>
@@ -6773,7 +6833,7 @@
         <v>1.8152512813218151</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>250.50100200400803</v>
       </c>
@@ -6781,7 +6841,7 @@
         <v>1.8043222517284143</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>248.49699398797594</v>
       </c>
@@ -6789,7 +6849,7 @@
         <v>1.792821332195585</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>246.49298597194394</v>
       </c>
@@ -6797,7 +6857,7 @@
         <v>1.7807298254596389</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>244.48897795591185</v>
       </c>
@@ -6805,7 +6865,7 @@
         <v>1.7680270427031159</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>242.48496993987976</v>
       </c>
@@ -6813,7 +6873,7 @@
         <v>1.754692549403513</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>240.48096192384776</v>
       </c>
@@ -6821,7 +6881,7 @@
         <v>1.7406650342555585</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>238.47695390781564</v>
       </c>
@@ -6829,7 +6889,7 @@
         <v>1.724959914578406</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>236.47294589178358</v>
       </c>
@@ -6837,7 +6897,7 @@
         <v>1.7081269404447819</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>234.46893787575152</v>
       </c>
@@ -6845,7 +6905,7 @@
         <v>1.6900658437826244</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>232.4649298597194</v>
       </c>
@@ -6853,7 +6913,7 @@
         <v>1.6706720333012197</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>230.4609218436874</v>
       </c>
@@ -6861,7 +6921,7 @@
         <v>1.6498353433097959</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>228.45691382765534</v>
       </c>
@@ -6869,7 +6929,7 @@
         <v>1.6274407990843123</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>226.45290581162322</v>
       </c>
@@ -6877,7 +6937,7 @@
         <v>1.6033740022325538</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>224.44889779559122</v>
       </c>
@@ -6885,7 +6945,7 @@
         <v>1.5775022761932878</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>222.44488977955916</v>
       </c>
@@ -6893,7 +6953,7 @@
         <v>1.55084765969724</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>220.44088176352705</v>
       </c>
@@ -6901,7 +6961,7 @@
         <v>1.5237085544003022</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>218.43687374749499</v>
       </c>
@@ -6909,7 +6969,7 @@
         <v>1.4953856631296834</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>216.43286573146287</v>
       </c>
@@ -6917,7 +6977,7 @@
         <v>1.4659044016574418</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>214.42885771543087</v>
       </c>
@@ -6925,7 +6985,7 @@
         <v>1.4353205160865059</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>212.42484969939881</v>
       </c>
@@ -6933,7 +6993,7 @@
         <v>1.4036701443902102</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>210.42084168336669</v>
       </c>
@@ -6941,7 +7001,7 @@
         <v>1.3709954852237507</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>208.41683366733469</v>
       </c>
@@ -6949,7 +7009,7 @@
         <v>1.3373497944740658</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>206.41282565130263</v>
       </c>
@@ -6957,7 +7017,7 @@
         <v>1.3027792718905378</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>204.40881763527051</v>
       </c>
@@ -6965,7 +7025,7 @@
         <v>1.2671717494833543</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>202.40480961923845</v>
       </c>
@@ -6973,7 +7033,7 @@
         <v>1.2307036945790346</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>200.40080160320633</v>
       </c>
@@ -6981,7 +7041,7 @@
         <v>1.1934377925048687</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>198.39679358717427</v>
       </c>
@@ -6989,7 +7049,7 @@
         <v>1.1554416166341763</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>196.39278557114216</v>
       </c>
@@ -6997,7 +7057,7 @@
         <v>1.1167883367564573</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>194.38877755511027</v>
       </c>
@@ -7005,7 +7065,7 @@
         <v>1.0775646656706819</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>192.38476953907815</v>
       </c>
@@ -7013,7 +7073,7 @@
         <v>1.037849453208751</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>190.38076152304609</v>
       </c>
@@ -7021,7 +7081,7 @@
         <v>0.99773141441027624</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>188.37675350701397</v>
       </c>
@@ -7029,7 +7089,7 @@
         <v>0.95762355815532385</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>186.37274549098191</v>
       </c>
@@ -7037,7 +7097,7 @@
         <v>0.91770447127463761</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>184.3687374749498</v>
       </c>
@@ -7045,7 +7105,7 @@
         <v>0.87793296715380598</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>182.36472945891774</v>
       </c>
@@ -7053,7 +7113,7 @@
         <v>0.83847064482115585</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>180.36072144288585</v>
       </c>
@@ -7061,7 +7121,7 @@
         <v>0.79947893511820212</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>178.35671342685373</v>
       </c>
@@ -7069,7 +7129,7 @@
         <v>0.76112728205369562</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>176.35270541082161</v>
       </c>
@@ -7077,7 +7137,7 @@
         <v>0.72358635412981842</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>174.34869739478955</v>
       </c>
@@ -7085,7 +7145,7 @@
         <v>0.68702955031493185</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>172.34468937875749</v>
       </c>
@@ -7093,7 +7153,7 @@
         <v>0.65152546630122288</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>170.34068136272538</v>
       </c>
@@ -7101,7 +7161,7 @@
         <v>0.61607017047865664</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>168.33667334669326</v>
       </c>
@@ -7109,7 +7169,7 @@
         <v>0.58160274535991863</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>166.33266533066137</v>
       </c>
@@ -7117,7 +7177,7 @@
         <v>0.54822284910628305</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>164.32865731462931</v>
       </c>
@@ -7125,7 +7185,7 @@
         <v>0.51603482388174748</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>162.32464929859719</v>
       </c>
@@ -7133,7 +7193,7 @@
         <v>0.4851544209895981</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>160.32064128256513</v>
       </c>
@@ -7141,7 +7201,7 @@
         <v>0.45569160120132829</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>158.31663326653319</v>
       </c>
@@ -7149,7 +7209,7 @@
         <v>0.42775692258520803</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>156.31262525050113</v>
       </c>
@@ -7157,7 +7217,7 @@
         <v>0.4014617813404554</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>154.30861723446901</v>
       </c>
@@ -7165,7 +7225,7 @@
         <v>0.37599943718592937</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>152.30460921843695</v>
       </c>
@@ -7173,7 +7233,7 @@
         <v>0.35133613315965334</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>150.30060120240483</v>
       </c>
@@ -7181,7 +7241,7 @@
         <v>0.32790919958990583</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>148.29659318637277</v>
       </c>
@@ -7189,7 +7249,7 @@
         <v>0.30570810471193616</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>146.29258517034066</v>
       </c>
@@ -7197,7 +7257,7 @@
         <v>0.28471490042334796</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>144.2885771543086</v>
       </c>
@@ -7205,7 +7265,7 @@
         <v>0.26490386582149483</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>142.28456913827648</v>
       </c>
@@ -7213,7 +7273,7 @@
         <v>0.24624677635615427</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>140.28056112224459</v>
       </c>
@@ -7221,7 +7281,7 @@
         <v>0.22870554145181865</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>138.27655310621248</v>
       </c>
@@ -7229,7 +7289,7 @@
         <v>0.21215308475931929</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>136.27254509018042</v>
       </c>
@@ -7237,7 +7297,7 @@
         <v>0.19616584063940978</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>134.2685370741483</v>
       </c>
@@ -7245,7 +7305,7 @@
         <v>0.18116784472003988</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>132.26452905811624</v>
       </c>
@@ -7253,7 +7313,7 @@
         <v>0.16714509988734633</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>130.26052104208412</v>
       </c>
@@ -7261,7 +7321,7 @@
         <v>0.15408851891442191</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>128.25651302605206</v>
       </c>
@@ -7269,7 +7329,7 @@
         <v>0.14198639109367983</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>126.25250501002017</v>
       </c>
@@ -7277,7 +7337,7 @@
         <v>0.13082272746549467</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>124.24849699398806</v>
       </c>
@@ -7285,7 +7345,7 @@
         <v>0.12058408850200461</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>122.24448897795594</v>
       </c>
@@ -7293,7 +7353,7 @@
         <v>0.11125721477539267</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>120.24048096192388</v>
       </c>
@@ -7301,488 +7361,488 @@
         <v>0.10282902625710837</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>118.23647294589182</v>
       </c>
       <c r="B442" s="2">
-        <v>9.4985085788270376E-2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.094985085788270376</v>
+      </c>
+    </row>
+    <row r="443" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>116.2324649298597</v>
       </c>
       <c r="B443" s="2">
-        <v>8.722660944811729E-2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.08722660944811729</v>
+      </c>
+    </row>
+    <row r="444" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>114.22845691382759</v>
       </c>
       <c r="B444" s="2">
-        <v>8.0030495614863417E-2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.080030495614863417</v>
+      </c>
+    </row>
+    <row r="445" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>112.22444889779553</v>
       </c>
       <c r="B445" s="2">
-        <v>7.3356984926074259E-2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.073356984926074259</v>
+      </c>
+    </row>
+    <row r="446" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>110.22044088176347</v>
       </c>
       <c r="B446" s="2">
-        <v>6.7166437385233424E-2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.067166437385233424</v>
+      </c>
+    </row>
+    <row r="447" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>108.21643286573152</v>
       </c>
       <c r="B447" s="2">
-        <v>6.1419152962476339E-2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.061419152962476339</v>
+      </c>
+    </row>
+    <row r="448" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>106.21242484969946</v>
       </c>
       <c r="B448" s="2">
-        <v>5.6079993695222749E-2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.056079993695222749</v>
+      </c>
+    </row>
+    <row r="449" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>104.20841683366734</v>
       </c>
       <c r="B449" s="2">
-        <v>5.1110320999268037E-2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.051110320999268037</v>
+      </c>
+    </row>
+    <row r="450" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>102.20440881763528</v>
       </c>
       <c r="B450" s="2">
-        <v>4.6468190952359795E-2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.046468190952359795</v>
+      </c>
+    </row>
+    <row r="451" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>100.20040080160317</v>
       </c>
       <c r="B451" s="2">
-        <v>4.2114239898258014E-2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.042114239898258014</v>
+      </c>
+    </row>
+    <row r="452" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>98.196392785571106</v>
       </c>
       <c r="B452" s="2">
-        <v>3.8175317133934655E-2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.038175317133934655</v>
+      </c>
+    </row>
+    <row r="453" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>96.19238476953899</v>
       </c>
       <c r="B453" s="2">
-        <v>3.4668628871069342E-2</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.034668628871069342</v>
+      </c>
+    </row>
+    <row r="454" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>94.1883767535071</v>
       </c>
       <c r="B454" s="2">
-        <v>3.1435390874513594E-2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.031435390874513594</v>
+      </c>
+    </row>
+    <row r="455" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>92.184368737474983</v>
       </c>
       <c r="B455" s="2">
-        <v>2.8445388617025336E-2</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.028445388617025336</v>
+      </c>
+    </row>
+    <row r="456" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>90.180360721442923</v>
       </c>
       <c r="B456" s="2">
-        <v>2.5675898892294963E-2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.025675898892294963</v>
+      </c>
+    </row>
+    <row r="457" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>88.176352705410807</v>
       </c>
       <c r="B457" s="2">
-        <v>2.3095630543888697E-2</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.023095630543888697</v>
+      </c>
+    </row>
+    <row r="458" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>86.172344689378747</v>
       </c>
       <c r="B458" s="2">
-        <v>2.0672299645994409E-2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.020672299645994409</v>
+      </c>
+    </row>
+    <row r="459" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>84.16833667334663</v>
       </c>
       <c r="B459" s="2">
-        <v>1.8376053039423752E-2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.018376053039423752</v>
+      </c>
+    </row>
+    <row r="460" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>82.16432865731457</v>
       </c>
       <c r="B460" s="2">
-        <v>1.6177215796290858E-2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.016177215796290858</v>
+      </c>
+    </row>
+    <row r="461" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>80.160320641282453</v>
       </c>
       <c r="B461" s="2">
-        <v>1.4046024690633388E-2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.014046024690633388</v>
+      </c>
+    </row>
+    <row r="462" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>78.156312625250393</v>
       </c>
       <c r="B462" s="2">
-        <v>1.227778679939423E-2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.01227778679939423</v>
+      </c>
+    </row>
+    <row r="463" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>76.152304609218447</v>
       </c>
       <c r="B463" s="2">
-        <v>1.0762277157628956E-2</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.010762277157628956</v>
+      </c>
+    </row>
+    <row r="464" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>74.148296593186387</v>
       </c>
       <c r="B464" s="2">
-        <v>9.3728389488286143E-3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0093728389488286143</v>
+      </c>
+    </row>
+    <row r="465" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>72.144288577154271</v>
       </c>
       <c r="B465" s="2">
-        <v>8.0919669625361054E-3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0080919669625361054</v>
+      </c>
+    </row>
+    <row r="466" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>70.140280561122211</v>
       </c>
       <c r="B466" s="2">
-        <v>6.9024841861711622E-3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0069024841861711622</v>
+      </c>
+    </row>
+    <row r="467" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>68.136272545090094</v>
       </c>
       <c r="B467" s="2">
-        <v>5.7874502366547648E-3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0057874502366547648</v>
+      </c>
+    </row>
+    <row r="468" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>66.132264529058034</v>
       </c>
       <c r="B468" s="2">
-        <v>4.7298352648674352E-3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0047298352648674352</v>
+      </c>
+    </row>
+    <row r="469" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>64.128256513025917</v>
       </c>
       <c r="B469" s="2">
-        <v>3.7126692214451903E-3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0037126692214451903</v>
+      </c>
+    </row>
+    <row r="470" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>62.124248496994028</v>
       </c>
       <c r="B470" s="2">
-        <v>2.7190117233090016E-3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0027190117233090016</v>
+      </c>
+    </row>
+    <row r="471" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>60.120240480961911</v>
       </c>
       <c r="B471" s="2">
-        <v>1.7318034886472412E-3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0017318034886472412</v>
+      </c>
+    </row>
+    <row r="472" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>58.116232464929851</v>
       </c>
       <c r="B472" s="2">
-        <v>1.0162066778135869E-3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.0010162066778135869</v>
+      </c>
+    </row>
+    <row r="473" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>56.112224448897791</v>
       </c>
       <c r="B473" s="2">
-        <v>3.8901282661748388E-4</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.00038901282661748388</v>
+      </c>
+    </row>
+    <row r="474" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>54.108216432865845</v>
       </c>
       <c r="B474" s="2">
-        <v>-1.8319795251478185E-4</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.00018319795251478185</v>
+      </c>
+    </row>
+    <row r="475" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>52.104208416833785</v>
       </c>
       <c r="B475" s="2">
-        <v>-7.0888498905775921E-4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.00070888498905775921</v>
+      </c>
+    </row>
+    <row r="476" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>50.100200400801668</v>
       </c>
       <c r="B476" s="2">
-        <v>-1.1965087804499779E-3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0011965087804499779</v>
+      </c>
+    </row>
+    <row r="477" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>48.096192384769608</v>
       </c>
       <c r="B477" s="2">
-        <v>-1.6546491900481537E-3</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0016546491900481537</v>
+      </c>
+    </row>
+    <row r="478" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>46.092184368737492</v>
       </c>
       <c r="B478" s="2">
-        <v>-2.0917062147569367E-3</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0020917062147569367</v>
+      </c>
+    </row>
+    <row r="479" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>44.088176352705432</v>
       </c>
       <c r="B479" s="2">
-        <v>-2.5162244454210152E-3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0025162244454210152</v>
+      </c>
+    </row>
+    <row r="480" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>42.084168336673315</v>
       </c>
       <c r="B480" s="2">
-        <v>-2.9369234338884557E-3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0029369234338884557</v>
+      </c>
+    </row>
+    <row r="481" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>40.080160320641426</v>
       </c>
       <c r="B481" s="2">
-        <v>-3.3391730298218108E-3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0033391730298218108</v>
+      </c>
+    </row>
+    <row r="482" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>38.076152304609309</v>
       </c>
       <c r="B482" s="2">
-        <v>-3.5168231534576889E-3</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0035168231534576889</v>
+      </c>
+    </row>
+    <row r="483" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>36.072144288577249</v>
       </c>
       <c r="B483" s="2">
-        <v>-3.6666241104926561E-3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0036666241104926561</v>
+      </c>
+    </row>
+    <row r="484" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>34.068136272545132</v>
       </c>
       <c r="B484" s="2">
-        <v>-3.7940870557368125E-3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0037940870557368125</v>
+      </c>
+    </row>
+    <row r="485" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>32.064128256513072</v>
       </c>
       <c r="B485" s="2">
-        <v>-3.9046624098735896E-3</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0039046624098735896</v>
+      </c>
+    </row>
+    <row r="486" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>30.060120240480956</v>
       </c>
       <c r="B486" s="2">
-        <v>-4.0038019951431853E-3</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0040038019951431853</v>
+      </c>
+    </row>
+    <row r="487" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>28.056112224448896</v>
       </c>
       <c r="B487" s="2">
-        <v>-4.0972456537019097E-3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0040972456537019097</v>
+      </c>
+    </row>
+    <row r="488" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>26.052104208416779</v>
       </c>
       <c r="B488" s="2">
-        <v>-4.1914034054346475E-3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0041914034054346475</v>
+      </c>
+    </row>
+    <row r="489" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>24.048096192384719</v>
       </c>
       <c r="B489" s="2">
-        <v>-4.2908695534315143E-3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0042908695534315143</v>
+      </c>
+    </row>
+    <row r="490" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>22.044088176352773</v>
       </c>
       <c r="B490" s="2">
-        <v>-4.4011183448410202E-3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0044011183448410202</v>
+      </c>
+    </row>
+    <row r="491" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>20.040080160320713</v>
       </c>
       <c r="B491" s="2">
-        <v>-4.5275952948978992E-3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0045275952948978992</v>
+      </c>
+    </row>
+    <row r="492" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>18.036072144288596</v>
       </c>
       <c r="B492" s="2">
-        <v>-4.6758650511622884E-3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0046758650511622884</v>
+      </c>
+    </row>
+    <row r="493" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>16.032064128256536</v>
       </c>
       <c r="B493" s="2">
-        <v>-4.8513422946199966E-3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0048513422946199966</v>
+      </c>
+    </row>
+    <row r="494" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>14.028056112224419</v>
       </c>
       <c r="B494" s="2">
-        <v>-5.0595620065462064E-3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0050595620065462064</v>
+      </c>
+    </row>
+    <row r="495" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>12.024048096192359</v>
       </c>
       <c r="B495" s="2">
-        <v>-5.3059989012750174E-3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0053059989012750174</v>
+      </c>
+    </row>
+    <row r="496" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>10.020040080160243</v>
       </c>
       <c r="B496" s="2">
-        <v>-5.596127693140527E-3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.005596127693140527</v>
+      </c>
+    </row>
+    <row r="497" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>8.0160320641283533</v>
       </c>
       <c r="B497" s="2">
-        <v>-5.7601203468369191E-3</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0057601203468369191</v>
+      </c>
+    </row>
+    <row r="498" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>6.0120240480962366</v>
       </c>
       <c r="B498" s="2">
-        <v>-5.8665405523379947E-3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0058665405523379947</v>
+      </c>
+    </row>
+    <row r="499" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>4.0080160320641767</v>
       </c>
       <c r="B499" s="2">
-        <v>-5.9119528604091413E-3</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0059119528604091413</v>
+      </c>
+    </row>
+    <row r="500" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>2.0040080160321168</v>
       </c>
       <c r="B500" s="2">
-        <v>-5.8819927157207066E-3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0058819927157207066</v>
+      </c>
+    </row>
+    <row r="501" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>0</v>
       </c>
       <c r="B501" s="2">
-        <v>-5.7600920821087361E-3</v>
+        <v>-0.0057600920821087361</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778005" bottom="0.98402777777778005" header="0.51180555555554996" footer="0.51180555555554996"/>
+  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51180555555555" footer="0.51180555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
+++ b/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Preliminary Calcs</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Total Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
   </si>
   <si>
     <t>Potential (mV)</t>
@@ -85,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -114,11 +126,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +176,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3814,10 +3854,10 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">

--- a/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
+++ b/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Preliminary Calcs</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Total Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
   </si>
   <si>
     <t>Potential (mV)</t>
@@ -97,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -140,11 +146,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +203,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3854,10 +3874,10 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">

--- a/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
+++ b/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Preliminary Calcs</t>
   </si>
@@ -37,6 +37,30 @@
   </si>
   <si>
     <t>Total Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
   </si>
   <si>
     <t>Potential (mV)</t>
@@ -103,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -153,11 +177,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +262,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3874,10 +3954,10 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">

--- a/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
+++ b/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Preliminary Calcs</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>Total Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
   </si>
   <si>
     <t>Potential (mV)</t>
@@ -127,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -205,11 +223,32 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +329,27 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3954,10 +4014,10 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">

--- a/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
+++ b/project/windows10/DataExport_ForSelectFile_AlwaysClosed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Preliminary Calcs</t>
   </si>
@@ -37,6 +37,42 @@
   </si>
   <si>
     <t>Total Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
+  </si>
+  <si>
+    <t>Potential (mV)</t>
+  </si>
+  <si>
+    <t>Current (uA)</t>
   </si>
   <si>
     <t>Potential (mV)</t>
@@ -145,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="134">
     <border>
       <left/>
       <right/>
@@ -244,11 +280,53 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +428,48 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4014,10 +4134,10 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.3">
